--- a/Code/Game_Study/together/计划表.xlsx
+++ b/Code/Game_Study/together/计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>请先点击我！</t>
   </si>
@@ -40,6 +40,9 @@
     <t>挑战目标</t>
   </si>
   <si>
+    <t>more</t>
+  </si>
+  <si>
     <t>完成棋盘背景，至少把那个黑色的背景框给我弹出来</t>
   </si>
   <si>
@@ -47,6 +50,58 @@
   </si>
   <si>
     <t>完成boxes客户端搭建</t>
+  </si>
+  <si>
+    <t>谢敏</t>
+  </si>
+  <si>
+    <r>
+      <t>不仅完成客户端搭建，还完成服务器与客户端的通信。
+记录一次</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>白事件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。（目前没有系统的事件记录的准则，暂时先按我的感觉搞，最后统计的时候可以再讨论是否需要记录。）
+另外说明一下，不要只是看到搞得快就白事件就只是重视速度，如果你跟作者方法不一样，已经能搞出来，就是红事件。或者说你理解很到位，写篇总结大家看得都觉得很OK，那也有白事件。</t>
+    </r>
+  </si>
+  <si>
+    <t>薛雨</t>
+  </si>
+  <si>
+    <t>棋盘格子画出来了，但是
+鼠标定位还未能完成</t>
+  </si>
+  <si>
+    <t>喻波</t>
+  </si>
+  <si>
+    <t>完成底线目标</t>
+  </si>
+  <si>
+    <t>完成客户端的鼠标定位棋盘中的线条</t>
+  </si>
+  <si>
+    <t>完成客户端</t>
+  </si>
+  <si>
+    <t>完成服务器的一半</t>
+  </si>
+  <si>
+    <t>完成全部</t>
   </si>
 </sst>
 </file>
@@ -54,10 +109,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -68,6 +123,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="48"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
@@ -75,6 +136,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -83,15 +145,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -105,8 +166,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,28 +183,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,21 +196,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -172,6 +204,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -180,60 +241,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,103 +297,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,92 +493,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -443,16 +504,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="0" tint="-0.35"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="0" tint="-0.35"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="0" tint="-0.35"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="0" tint="-0.35"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,6 +523,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,16 +576,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,191 +615,203 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1061,102 +1158,142 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="45.75" customWidth="1"/>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
-    <col min="4" max="4" width="20.25" customWidth="1"/>
-    <col min="5" max="5" width="25.125" customWidth="1"/>
-    <col min="6" max="16384" width="9.375" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="45.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.25" style="4" customWidth="1"/>
+    <col min="5" max="5" width="39.875" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9.375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="90" customHeight="1" spans="1:20">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="90" customHeight="1" spans="1:16">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:17">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A4" s="7" t="s">
+    <row r="4" s="1" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="10" t="s">
         <v>6</v>
       </c>
+      <c r="E4" s="10" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
-      <c r="A5" s="8">
+    <row r="5" s="2" customFormat="1" ht="19" customHeight="1" spans="1:4">
+      <c r="A5" s="11">
         <v>42595.7916666667</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="12" t="s">
         <v>9</v>
       </c>
+      <c r="D5" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
+    <row r="6" s="1" customFormat="1" ht="135" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="51" customHeight="1" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="20" customHeight="1" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
+    <row r="10" s="3" customFormat="1" spans="1:5">
+      <c r="A10" s="15">
+        <v>42602.7916666667</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="11" s="1" customFormat="1"/>
     <row r="12" s="1" customFormat="1"/>
     <row r="13" s="1" customFormat="1"/>
@@ -1164,7 +1301,7 @@
     <row r="15" s="1" customFormat="1"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="G1:T1"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A2:Q2"/>
   </mergeCells>
   <hyperlinks>

--- a/Code/Game_Study/together/计划表.xlsx
+++ b/Code/Game_Study/together/计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>请先点击我！</t>
   </si>
@@ -56,6 +56,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>不仅完成客户端搭建，还完成服务器与客户端的通信。
 记录一次</t>
     </r>
@@ -64,6 +69,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>白事件</t>
@@ -72,6 +78,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>。（目前没有系统的事件记录的准则，暂时先按我的感觉搞，最后统计的时候可以再讨论是否需要记录。）
@@ -79,7 +86,7 @@
     </r>
   </si>
   <si>
-    <t>薛雨</t>
+    <t xml:space="preserve">  薛雨</t>
   </si>
   <si>
     <t>棋盘格子画出来了，但是
@@ -102,6 +109,18 @@
   </si>
   <si>
     <t>完成全部</t>
+  </si>
+  <si>
+    <t>除了最后一个弹出gameover的图片以外
+全部完成，但是鉴于对代码理解不够深
+入，不记录白事件</t>
+  </si>
+  <si>
+    <t>薛雨</t>
+  </si>
+  <si>
+    <t>未完成底线目标，只是画了格子，鼠标不能定位，
+记录一次黑事件</t>
   </si>
 </sst>
 </file>
@@ -109,12 +128,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +164,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -152,7 +185,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,7 +200,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -175,14 +208,77 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,99 +292,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,187 +341,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,6 +559,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -542,20 +589,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,17 +619,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,21 +653,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -623,10 +661,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -635,133 +673,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -802,9 +840,6 @@
     <xf numFmtId="22" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -813,6 +848,9 @@
     </xf>
     <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1160,8 +1198,8 @@
   <sheetPr/>
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="13.5"/>
@@ -1169,7 +1207,7 @@
     <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="45.75" style="4" customWidth="1"/>
     <col min="3" max="3" width="21.375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.25" style="4" customWidth="1"/>
+    <col min="4" max="4" width="33.5" style="4" customWidth="1"/>
     <col min="5" max="5" width="39.875" style="4" customWidth="1"/>
     <col min="6" max="16384" width="9.375" style="4" customWidth="1"/>
   </cols>
@@ -1238,13 +1276,13 @@
       <c r="A5" s="11">
         <v>42595.7916666667</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1252,10 +1290,7 @@
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1263,7 +1298,6 @@
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1"/>
       <c r="C7" s="8" t="s">
         <v>14</v>
       </c>
@@ -1272,13 +1306,13 @@
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1"/>
     <row r="10" s="3" customFormat="1" spans="1:5">
-      <c r="A10" s="15">
+      <c r="A10" s="14">
         <v>42602.7916666667</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1294,9 +1328,30 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
+    <row r="11" s="1" customFormat="1" ht="60" customHeight="1" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="14" s="1" customFormat="1"/>
     <row r="15" s="1" customFormat="1"/>
   </sheetData>
